--- a/data/st_notices/2023-05-20_ST股公告.xlsx
+++ b/data/st_notices/2023-05-20_ST股公告.xlsx
@@ -464,41 +464,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>股票名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>公告标题</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>公告日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>公告发布时间</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>公告附件</t>
         </is>
@@ -507,73 +507,4133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ST星星</t>
+          <t>*ST左江</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>300256</t>
+          <t>300799</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ST星星:2023年5月19日投资者关系活动记录表</t>
+          <t>*ST左江:独立董事关于第三届董事会第七次会议相关事项的独立意见</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-05-20 00:00:00</t>
+          <t>2023-05-23 00:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-05-20 20:04:44:000</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>https://pdf.dfcfw.com/pdf/H2_AN202305201587032177_1.pdf?1684613094000.pdf</t>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057483_1.pdf?1684783427000.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>*ST左江:关于回购注销部分限制性股票减少注册资本暨通知债权人的公告</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057474_1.pdf?1684783419000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>*ST左江:第三届董事会第七次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057478_1.pdf?1684783427000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>*ST左江:独立董事关于第三届董事会第七次会议相关事项的事前认可意见</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057479_1.pdf?1684783419000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>*ST左江:关于召开2023年第二次临时股东大会的通知</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057477_1.pdf?1684783419000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>*ST左江:对外投资设立控股子公司的公告</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057482_1.pdf?1684783419000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>*ST左江:关于控股子公司增资扩股暨关联交易的公告</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:23:39:000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057475_1.pdf?1684783419000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>*ST左江</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>300799</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>*ST左江:第三届监事会第六次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:19:36:000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587058688_1.pdf?1684783199000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ST新研</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>300159</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ST新研:关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:54:38:000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050619_1.pdf?1684774507000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ST华铁:关于2023年第一次临时股东大会增加临时提案暨补充通知的公告</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:37:000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055073_1.pdf?1684779481000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ST华铁:关于监事会换届选举的公告</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:37:000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055066_1.pdf?1684779481000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ST华铁:第九届监事会2023年第二次临时会议决议公告</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:37:000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055075_1.pdf?1684779481000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ST华铁:2023年第一次职工代表大会决议公告</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:25:000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055072_1.pdf?1684779562000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>*ST新联:《公司章程》(2023年5月)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059888_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>*ST新联:关于公司部分股份被解除轮候冻结的公告</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059894_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>*ST新联:2022年年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:59:35:000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059843_1.pdf?1684785603000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>*ST新联:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:58:22:000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059815_1.pdf?1684785522000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ST工智</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ST工智:第十二届董事会第四次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:09:46:000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057671_1.pdf?1684782618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ST工智</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ST工智:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:07:40:000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057461_1.pdf?1684782472000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ST大集</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000564</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ST大集:关于公司股东延边新合作连锁超市有限公司所持股份被司法划转的公告</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:45:41:000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059456_1.pdf?1684784768000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ST红太阳</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000525</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ST红太阳:000525ST红太阳调研活动信息20230522</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:15:51:000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587051677_1.pdf?1684775752000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ST红太阳</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000525</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ST红太阳:关于股票交易异常波动暨风险提示的公告</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-05-21 15:33:49:000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305211587035052_1.pdf?1684683246000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ST贵人</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>603555</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ST贵人:贵人鸟股份有限公司关于出售部分闲置资产的进展公告</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-05-22 15:48:41:000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587047481_1.pdf?1684770529000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>*ST金一</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002721</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>*ST金一:北京德恒律师事务所关于北京金一文化发展股份有限公司2022年度股东大会的法律意见</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:37:000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055068_1.pdf?1684779481000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*ST金一</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002721</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>*ST金一:2022年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:17:37:000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055080_1.pdf?1684779481000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ST宇顺</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ST宇顺:关于延期回复深圳证券交易所2022年年度报告问询函的公告</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:29:06:000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052503_1.pdf?1684776581000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>*ST京蓝</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>*ST京蓝:关于控股子公司中科鼎实环境工程有限公司收到中标通知书的公告</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:29:06:000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052494_1.pdf?1684776581000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>*ST日海:第五届董事会第五十二次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:18:000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052559_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>*ST日海:独立董事对相关事项发表的事前认可意见</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:18:000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052548_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>*ST日海:关于公司接受第一大股东股票质押担保暨关联交易的公告</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:18:000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052540_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>*ST日海:独立董事对第五届董事会第五十二次会议相关事项的独立意见</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:18:000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052547_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>*ST日海:第五届监事会第四十一次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:29:06:000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052491_1.pdf?1684776581000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>*ST红相</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>300427</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>*ST红相:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:04:04:000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059969_1.pdf?1684785848000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>*ST红相</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>300427</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>*ST红相:浙江天册律师事务所关于红相股份有限公司2022年年度股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:04:04:000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059970_1.pdf?1684785848000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ST通脉</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>603559</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ST通脉:中通国脉通信股份有限公司投资者关系活动记录表</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:16:38:000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587048106_1.pdf?1684772203000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ST开元:关于聘任公司财务总监的公告</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059879_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ST开元:2023年限制性股票激励计划激励对象名单(截至授予日)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059881_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ST开元:关于调整公司2023年限制性股票激励计划相关事项的公告</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059892_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ST开元:上海荣正企业咨询服务(集团)股份有限公司关于开元教育科技集团股份有限公司2023年限制性股票激励计划授予事项之独立财务顾问报告</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059885_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ST开元:关于全资子公司增资扩股的公告</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059891_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ST开元:监事会关于公司2023年限制性股票激励计划激励对象名单(截至授予日)的核查意见</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059893_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ST开元:北京观韬中茂(上海)律师事务所关于开元教育科技集团股份有限公司2023年限制性股票激励计划调整及授予相关事项的法律意见书</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:59:35:000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059860_1.pdf?1684785603000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ST开元:独立董事关于第四届董事会第四十三会议相关事项的独立意见</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:59:35:000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059866_1.pdf?1684785603000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ST开元:关于向激励对象授予限制性股票的公告</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:03:56:000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059840_1.pdf?1684785840000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ST开元:第四届董事会第四十三次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:58:22:000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059816_1.pdf?1684785522000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ST开元:第四届监事会第三十九次会议决议公告</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:58:22:000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059822_1.pdf?1684785522000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ST通葡</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>600365</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ST通葡:吉林石力律师事务所关于通化葡萄酒股份有限公司2022年年度股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:15:06:000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054942_1.pdf?1684779326000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ST通葡</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>600365</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ST通葡:通化葡萄酒股份有限公司2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:14:43:000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054941_1.pdf?1684779287000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ST星星</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>300256</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ST星星:2023年5月19日投资者关系活动记录表</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-05-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-05-20 20:04:44:000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305201587032177_1.pdf?1684613094000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ST天顺</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002800</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>002800:ST天顺年报问询函</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:33:37:000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055738_1.pdf?1684780437000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>*ST中期</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>*ST中期:关于延期回复深圳证券交易所2022年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:22:34:000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055325_1.pdf?1684779754000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ST交投</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ST交投:关于收到中标通知书的公告</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:44:29:000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059433_1.pdf?1684784673000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*ST海投</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000616</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>*ST海投:2023-055:关于股票交易异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-05-21 15:33:41:000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305211587035033_1.pdf?1684683246000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ST海越</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>600387</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ST海越:海越能源2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:37:59:000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055924_1.pdf?1684780683000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ST海越</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>600387</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ST海越:国浩律师(上海)事务所关于海越能源集团股份有限公司2022年年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:37:59:000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055946_1.pdf?1684780683000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>*ST三盛</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>300282</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>*ST三盛:关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:00:49:000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587047789_1.pdf?1684771266000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>*ST三盛</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>300282</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>*ST三盛:关于召开2022年度股东大会的提示性公告</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:00:49:000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587047790_1.pdf?1684771266000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>*ST碳元</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>603133</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>*ST碳元:碳元科技股份有限公司关于召开2022年度业绩说明会的公告</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:45:53:000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050158_1.pdf?1684773965000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>*ST天山</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>300313</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>*ST天山:300313*ST天山业绩说明会、路演活动等20230522</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-05-22 14:50:34:000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587044329_1.pdf?1684767039000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>*ST和科</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002816</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>*ST和科:关于对深圳证券交易所2022年年报问询函的回复公告</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:59:47:000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050776_1.pdf?1684774809000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>*ST和科</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002816</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>*ST和科:和信会计师事务所(特殊普通合伙)关于深圳市和科达精密清洗设备股份有限公司2022年年报问询函的回复</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:00:05:000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050775_1.pdf?1684774809000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ST九有</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>600462</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ST九有:湖北九有投资股份有限公司关于参加2023年湖北辖区上市公司投资者网上集体接待日活动的公告</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-05-22 15:43:43:000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587047267_1.pdf?1684770244000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ST华英</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002321</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ST华英:关于延期回复2022年年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:45:33:000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053187_1.pdf?1684777537000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>*ST皇台</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>*ST皇台:2022年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:42:000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060968_1.pdf?1684788238000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>*ST皇台</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>*ST皇台:关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:42:000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060987_1.pdf?1684788238000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>*ST皇台</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>*ST皇台:2022年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:42:000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060984_1.pdf?1684788238000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>*ST辅仁</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>600781</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>*ST辅仁:*ST辅仁关于实际控制人收到中国证券监督管理委员会立案告知书的公告</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:43:57:000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053006_1.pdf?1684777464000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>*ST辅仁</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>600781</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>*ST辅仁:*ST辅仁关于收到股票终止上市决定的公告</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:43:57:000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053010_1.pdf?1684777437000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>*ST辅仁</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>600781</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>*ST辅仁:*ST辅仁关于公司股票进入退市整理期交易的公告</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:43:57:000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053009_1.pdf?1684777464000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>*ST辅仁</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>600781</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>关于辅仁药业集团制药股份有限公司股票终止上市的公告</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-05-22 21:25:19:000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587061454_1.pdf?1684790721000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>*ST运盛</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>600767</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>*ST运盛:运盛医疗:关于终止筹划重大资产重组的公告</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:08:44:000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057606_1.pdf?1684782718000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>*ST未来</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>600532</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>*ST未来:上海智汇未来医疗服务股份有限公司关于收到股票终止上市决定的公告</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:19:36:000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587058687_1.pdf?1684783199000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>*ST未来</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>600532</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>*ST未来:上海智汇未来医疗服务股份有限公司关于关于公司股票进入退市整理期交易的公告</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:19:36:000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587058689_1.pdf?1684783538000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>*ST未来</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>600532</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>关于上海智汇未来医疗服务股份有限公司股票终止上市的公告</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-05-22 21:27:09:000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587061453_1.pdf?1684790834000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>*ST明诚</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>600136</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>*ST明诚:武汉当代明诚文化体育集团股份有限公司关于公司涉及重大诉讼的公告</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:34:52:000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587049249_1.pdf?1684773300000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>*ST腾信</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>300392</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>*ST腾信:腾信2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:49:12:000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587056273_1.pdf?1684781376000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>*ST腾信</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>300392</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>*ST腾信:腾信2022年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:49:12:000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587056271_1.pdf?1684781376000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>*ST和佳</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>300273</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>*ST和佳:关于控股股东所持部分公司股票被司法拍卖的进展公告</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:47:34:000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053271_1.pdf?1684777678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ST摩登</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002656</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ST摩登:关于公司实际控制人取保候审的公告</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-05-21 15:33:41:000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305211587035047_1.pdf?1684683262000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>*ST必康:关于法院指定公司预重整期间临时管理人的公告</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:31:41:000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052632_1.pdf?1684776729000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>*ST御银</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>*ST御银:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:29:07:000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055563_1.pdf?1684780147000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>*ST御银</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>*ST御银:北京市金杜(广州)律师事务所关于广州御银科技股份有限公司2022年年度股东大会之法律意见书</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:28:59:000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055565_1.pdf?1684780147000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ST实华</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000637</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ST实华:广东广信君达律师事务所关于茂名石化实华股份有限公司2022年年度股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:18:01:000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060451_1.pdf?1684786681000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ST实华</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000637</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ST实华:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:17:57:000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060443_1.pdf?1684786681000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ST起步</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>603557</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ST起步:关于董事辞职的公告</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:57:33:000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050710_1.pdf?1684774674000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ST国安</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000839</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ST国安:关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:44:40:000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587049979_1.pdf?1684773904000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>*ST美尚</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>300495</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>*ST美尚:300495*ST美尚业绩说明会20230519</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-05-22 09:48:22:000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587038928_1.pdf?1684748899000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>*ST爱迪:关于重整事项的进展公告</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:50:55:000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050480_1.pdf?1684774268000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>*ST爱迪:关于再次延期回复深圳证券交易所2022年年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:50:55:000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050479_1.pdf?1684774268000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>*ST爱迪:爱迪尔2022年度网上业绩说明会记录表</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:04:23:000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054265_1.pdf?1684778660000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>*ST西钢</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>*ST西钢:西宁特殊钢股份有限公司2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:14:27:000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054928_1.pdf?1684779271000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>*ST西钢</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>*ST西钢:西宁特殊钢股份有限公司2022年年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:14:31:000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054929_1.pdf?1684779275000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ST龙净</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>600388</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ST龙净:关于公开发行A股可转换公司债券跟踪评级结果的公告</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:57:52:000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054111_1.pdf?1684780124000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ST龙净</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>600388</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ST龙净:福建龙净环保股份有限公司公开发行可转换公司债券跟踪评级报告</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:58:04:000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054114_1.pdf?1684789884000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>*ST佳沃</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>300268</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>*ST佳沃:关于签署《执行和解协议》暨诉讼进展公告</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:05:50:000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587057232_1.pdf?1684782367000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ST安信:中信证券股份有限公司关于中国信托业保障基金有限责任公司收购安信信托股份有限公司部分股权之2022年年度及2023年第一季度持续督导意见</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:27:03:000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055530_1.pdf?1684780048000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ST安信:诉讼进展公告</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:27:03:000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055519_1.pdf?1684780048000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ST安信:中信证券股份有限公司关于上海砥安投资管理有限公司收购安信信托股份有限公司向特定对象发行A股股票之2023年第一季度持续督导意见</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:27:03:000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055517_1.pdf?1684780048000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ST远程</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ST远程:远程股份2023年5月19日投资者关系活动记录表(2022年度业绩网上说明会)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-05-22 15:54:16:000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587047633_1.pdf?1684770871000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ST路通</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>300555</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>深交所:ST路通_监管函</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-05-22 12:42:47:000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587041006_1.pdf?1684759375000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>*ST太安</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002433</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>*ST太安:广东太安堂药业股份有限公司关于独立董事辞职的公告</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:18:000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052557_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>*ST太安</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002433</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>*ST太安:广东太安堂药业股份有限公司关于延期回复深圳证券交易所年报问询函的公告</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:30:10:000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052550_1.pdf?1684776618000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>*ST宏图:关于公司股票可能被终止上市的第八次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:44:24:000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587053041_1.pdf?1684777472000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>*ST庞大:关于股票可能被终止上市的第十次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-05-22 16:55:49:000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587050651_1.pdf?1684774577000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>*ST全新</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000007</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>*ST全新:广东旭晨律师事务所关于深圳市全新好股份有限公司2022年年度股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-05-22 21:52:39:000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587062525_1.pdf?1684792387000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>*ST全新</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000007</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>*ST全新:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-05-22 21:51:45:000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587062526_1.pdf?1684792325000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>*ST天润</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002113</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>*ST天润:关于收到湖南证监局对公司2022年年报事后审核问询函的公告</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:57:39:000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587061390_1.pdf?1684789079000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>*ST搜特:股票交易严重异常波动公告</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:42:24:000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059421_1.pdf?1684784556000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>*ST搜特:关于公司股票及可转换公司债券将被终止上市暨停牌的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:42:24:000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059423_1.pdf?1684784556000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>*ST搜特:可转换公司债券交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:39:38:000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059384_1.pdf?1684787485000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>*ST泛海</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>000046</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>*ST泛海:关于公司控股股东及其一致行动人增持公司股份超过1%的提示性公告</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:35:45:000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587055817_1.pdf?1684789179000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>*ST泛海</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000046</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>000046:*ST泛海年报问询函</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>2023-05-20 00:00:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-05-20 09:17:37:000</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://pdf.dfcfw.com/pdf/H2_AN202305201586991787_1.pdf?1684574277000.pdf</t>
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ST同洲</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ST同洲:关于对外转让所持有的参股公司股权及债权的进展公告</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:32:13:000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052695_1.pdf?1684776737000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ST同洲</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ST同洲:关于公司第一大股东股份被冻结期限延长的公告</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:32:13:000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052688_1.pdf?1684776737000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ST恒久</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ST恒久:股票交易异常波动及严重异常波动公告</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:27:38:000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587058974_1.pdf?1684783678000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>*ST新海:关于回购注销部分已授予限制性股票减资暨通知债权人的公告</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-05-22 18:05:48:000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587054526_1.pdf?1684779007000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>*ST新海:关于公司股票可能被实施重大违法强制退市的第十七次风险提示公告</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-05-21 15:36:36:000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305211586979612_1.pdf?1684683400000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ST阳光城:2022年年度股东大会法律意见书</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:30:000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060977_1.pdf?1684788238000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ST阳光城:股票交易异常波动及严重异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:42:000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060985_1.pdf?1684788238000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ST阳光城:阳光城2022年年度股东大会决议的公告</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:43:42:000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060969_1.pdf?1684788234000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>*ST紫鑫:关于公司股票交易严重异常波动的公告</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:11:38:000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060301_1.pdf?1684786314000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>*ST紫鑫:关于延期回复深圳证券交易所2022年年度报告问询函的公告</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:11:34:000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587060307_1.pdf?1684786318000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>*ST紫鑫:关于公司股票存在可能因股价低于面值被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-05-21 15:33:41:000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305211587035048_1.pdf?1684683246000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>*ST嘉凯</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000918</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>*ST嘉凯:关于公司股票可能被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:58:22:000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059818_1.pdf?1684785522000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ST泰禾</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000732</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ST泰禾:股票交易异常波动公告</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:59:39:000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587061396_1.pdf?1684789196000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ST泰禾</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000732</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ST泰禾:关于公司股票存在可能因股价低于面值被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-05-22 20:59:39:000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587061395_1.pdf?1684789196000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ST美置:2022年年度股东大会的法律意见书</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:59:35:000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059865_1.pdf?1684785603000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ST美置:2022年年度股东大会决议公告</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-05-22 19:59:43:000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587059851_1.pdf?1684785603000.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ST美置:关于公司股票存在可能因股价低于面值被终止上市的风险提示公告</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-05-22 17:20:51:000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://pdf.dfcfw.com/pdf/H2_AN202305221587052034_1.pdf?1684776063000.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -583,7 +4643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,31 +4671,961 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ST星星</t>
+          <t>*ST左江</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>300256</t>
+          <t>300799</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>*ST泛海</t>
+          <t>ST新研</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000046</t>
+          <t>300159</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ST华铁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*ST新联</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000620</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ST工智</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ST大集</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000564</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ST红太阳</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000525</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ST贵人</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>603555</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*ST金一</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002721</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ST宇顺</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>*ST京蓝</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>*ST日海</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>*ST红相</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>300427</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ST通脉</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>603559</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ST开元</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>300338</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ST通葡</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>600365</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ST星星</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>300256</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ST天顺</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002800</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>*ST中期</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ST交投</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>*ST海投</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000616</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ST海越</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>600387</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>*ST三盛</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>300282</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>*ST碳元</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>603133</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*ST天山</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>300313</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>*ST和科</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002816</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ST九有</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>600462</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ST华英</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002321</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST皇台</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>*ST辅仁</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>600781</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>*ST运盛</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>600767</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*ST未来</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>600532</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>*ST明诚</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>600136</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>*ST腾信</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>300392</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>*ST和佳</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>300273</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ST摩登</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002656</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>*ST必康</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>*ST御银</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ST实华</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000637</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ST起步</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>603557</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ST国安</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000839</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>*ST美尚</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>300495</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>*ST爱迪</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002740</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>*ST西钢</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ST龙净</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>600388</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>*ST佳沃</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>300268</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ST安信</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>600816</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ST远程</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ST路通</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>300555</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>*ST太安</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002433</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>*ST宏图</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>600122</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>*ST庞大</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>601258</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*ST全新</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000007</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>*ST天润</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002113</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>*ST搜特</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002503</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>*ST泛海</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000046</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ST同洲</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ST恒久</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>*ST新海</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002089</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ST阳光城</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000671</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>*ST紫鑫</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002118</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>*ST嘉凯</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000918</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ST泰禾</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000732</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ST美置</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
